--- a/sample_data/visitas_3_2022.xlsx
+++ b/sample_data/visitas_3_2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,21 +471,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44666</v>
+        <v>44650</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Psicologo3</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lucila Lourdes Aller Lillo</t>
+          <t>Máximo Agustí Galiano</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14665734Z</t>
+          <t>96746138L</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,26 +494,26 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44681</v>
+        <v>44638</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Psicologo3</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lucila Lourdes Aller Lillo</t>
+          <t>Lola Conesa Agustí</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14665734Z</t>
+          <t>92116835H</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,26 +522,26 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44659</v>
+        <v>44639</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Psicologo3</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lucila Lourdes Aller Lillo</t>
+          <t>Lola Conesa Agustí</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14665734Z</t>
+          <t>92116835H</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,26 +550,26 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44677</v>
+        <v>44648</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Psicologo3</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lucila Lourdes Aller Lillo</t>
+          <t>Lola Conesa Agustí</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14665734Z</t>
+          <t>92116835H</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -578,26 +578,26 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44668</v>
+        <v>44626</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Psicologo3</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lucila Lourdes Aller Lillo</t>
+          <t>Lola Conesa Agustí</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14665734Z</t>
+          <t>92116835H</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -611,21 +611,21 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44667</v>
+        <v>44633</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Psicologo3</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lucila Lourdes Aller Lillo</t>
+          <t>Lola Conesa Agustí</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14665734Z</t>
+          <t>92116835H</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -639,21 +639,21 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44652</v>
+        <v>44636</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Psicologo3</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lucila Lourdes Aller Lillo</t>
+          <t>Lola Conesa Agustí</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14665734Z</t>
+          <t>92116835H</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,26 +662,26 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44668</v>
+        <v>44649</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Psicologo3</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lucila Lourdes Aller Lillo</t>
+          <t>Lola Conesa Agustí</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14665734Z</t>
+          <t>92116835H</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44678</v>
+        <v>44641</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Psicologo3</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lucila Lourdes Aller Lillo</t>
+          <t>Serafina Hernandez Blanch</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14665734Z</t>
+          <t>49144449G</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -718,26 +718,26 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44667</v>
+        <v>44648</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Psicologo3</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lucila Lourdes Aller Lillo</t>
+          <t>Serafina Hernandez Blanch</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14665734Z</t>
+          <t>49144449G</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -746,12 +746,12 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44660</v>
+        <v>44630</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -760,12 +760,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rosendo Iglesias</t>
+          <t>Serafina Hernandez Blanch</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>56683053J</t>
+          <t>49144449G</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -774,26 +774,26 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44652</v>
+        <v>44624</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rosario del Sarmiento</t>
+          <t>Serafina Hernandez Blanch</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70491670M</t>
+          <t>49144449G</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -802,26 +802,26 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44675</v>
+        <v>44640</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rosario del Sarmiento</t>
+          <t>Serafina Hernandez Blanch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>70491670M</t>
+          <t>49144449G</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -830,26 +830,26 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44677</v>
+        <v>44622</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rosario del Sarmiento</t>
+          <t>Serafina Hernandez Blanch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>70491670M</t>
+          <t>49144449G</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -858,26 +858,26 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44657</v>
+        <v>44649</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rosario del Sarmiento</t>
+          <t>Serafina Hernandez Blanch</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>70491670M</t>
+          <t>49144449G</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -886,26 +886,26 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44657</v>
+        <v>44650</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rosario del Sarmiento</t>
+          <t>Serafina Hernandez Blanch</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>70491670M</t>
+          <t>49144449G</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -914,26 +914,26 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44680</v>
+        <v>44637</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Rosario del Sarmiento</t>
+          <t>Serafina Hernandez Blanch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>70491670M</t>
+          <t>49144449G</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -947,21 +947,21 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44674</v>
+        <v>44643</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rosario del Sarmiento</t>
+          <t>Serafina Hernandez Blanch</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>70491670M</t>
+          <t>49144449G</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -970,26 +970,26 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44652</v>
+        <v>44634</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Osvaldo Nogués Palacios</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>33841962S</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -998,26 +998,26 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44667</v>
+        <v>44627</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Psicologo3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Cristian Carbajo Hernandez</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>25820527Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1026,26 +1026,26 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44656</v>
+        <v>44647</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Psicologo3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Cristian Carbajo Hernandez</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>25820527Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1054,26 +1054,26 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44655</v>
+        <v>44640</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Psicologo3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Cristian Carbajo Hernandez</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>25820527Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1082,26 +1082,26 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44655</v>
+        <v>44628</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Psicologo3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Cristian Carbajo Hernandez</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>25820527Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1110,26 +1110,26 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44675</v>
+        <v>44625</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Psicologo3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Cristian Carbajo Hernandez</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>25820527Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1138,26 +1138,26 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44675</v>
+        <v>44630</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Psicologo3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Cristian Carbajo Hernandez</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>25820527Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1166,26 +1166,26 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44655</v>
+        <v>44640</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Psicologo3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Cristian Carbajo Hernandez</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>25820527Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1194,26 +1194,26 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44661</v>
+        <v>44639</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Psicologo3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Cristian Carbajo Hernandez</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>25820527Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1222,26 +1222,26 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44662</v>
+        <v>44637</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Ciriaco de Acosta</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>74962378L</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1250,26 +1250,26 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44662</v>
+        <v>44646</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Marcos Borja González</t>
+          <t>Ciriaco de Acosta</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>60196888T</t>
+          <t>74962378L</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1278,26 +1278,26 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44661</v>
+        <v>44643</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Josep del Mosquera</t>
+          <t>Ciriaco de Acosta</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>83974519R</t>
+          <t>74962378L</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1306,26 +1306,26 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44668</v>
+        <v>44644</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Josep del Mosquera</t>
+          <t>Ciriaco de Acosta</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>83974519R</t>
+          <t>74962378L</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1334,26 +1334,26 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44680</v>
+        <v>44651</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Josep del Mosquera</t>
+          <t>Ciriaco de Acosta</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>83974519R</t>
+          <t>74962378L</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1362,26 +1362,26 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44654</v>
+        <v>44633</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Oriol</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Josep del Mosquera</t>
+          <t>Ciriaco de Acosta</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>83974519R</t>
+          <t>74962378L</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1390,371 +1390,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44657</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Josep del Mosquera</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>83974519R</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44681</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Josep del Mosquera</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>83974519R</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44661</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Josep del Mosquera</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>83974519R</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44673</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Josep del Mosquera</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>83974519R</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44671</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Josep del Mosquera</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>83974519R</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44676</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Josep del Mosquera</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>83974519R</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44678</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Josep del Mosquera</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>83974519R</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44680</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Lucila Elodia Cabo Vigil</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>77018110B</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44668</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Lucila Elodia Cabo Vigil</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>77018110B</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44679</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Lucila Elodia Cabo Vigil</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>77018110B</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44659</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Lucila Elodia Cabo Vigil</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>77018110B</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44663</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Lucila Elodia Cabo Vigil</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>77018110B</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44656</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Elena</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Lucila Elodia Cabo Vigil</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>77018110B</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>terapia</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
